--- a/마이크로프로세서설계2019_부품주문내역_도우찬하경민.xlsx
+++ b/마이크로프로세서설계2019_부품주문내역_도우찬하경민.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG gram\forstudy\UOS_MPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,63 +78,63 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>[YwRobot] EZ 팬 모듈 R300[Elb080417]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KEYES] 5V 학생실습용 DC모터 [SZH-MT001]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[DFRobot] DHT11 온습도 센서 [DFR0067]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SMG] 미니 DC 코어리스 모터 + 30 mm 프로펠러 세트 [SZH-MT003]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[MIC] 1N4001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4W 5% Axial Resistor 122J (1.2KΩ)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4W 5% Axial Resistor 102J (1KΩ)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4W 5% Axial Resistor 302J (3KΩ)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/F) 20cm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/M) 20cm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[OEM] DHT11 온습도 센서모듈 [SZH-EK024]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SMG] 스크류 프로펠러 50 [SZH-GNP353-1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[WANJIE(중국)] 브레드보드 8023</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>[WANJIE(중국)] 브레드보드 102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[YwRobot] EZ 팬 모듈 R300[Elb080417]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KEYES] 5V 학생실습용 DC모터 [SZH-MT001]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[DFRobot] DHT11 온습도 센서 [DFR0067]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SMG] 미니 DC 코어리스 모터 + 30 mm 프로펠러 세트 [SZH-MT003]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[MIC] 1N4001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4W 5% Axial Resistor 122J (1.2KΩ)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4W 5% Axial Resistor 102J (1KΩ)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4W 5% Axial Resistor 302J (3KΩ)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/F) 20cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/M) 20cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (F/F) 20cm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[OEM] DHT11 온습도 센서모듈 [SZH-EK024]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SMG] 스크류 프로펠러 50 [SZH-GNP353-1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[WANJIE(중국)] 브레드보드 8023</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4">
         <v>3000</v>
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>4200</v>
@@ -647,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4">
         <v>600</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>5100</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4">
         <v>2100</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4">
         <v>1500</v>
@@ -732,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4">
         <v>12</v>
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="4">
         <v>10</v>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4">
         <v>850</v>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>850</v>
@@ -856,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4">
         <v>850</v>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="4">
         <v>500</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="4">
         <v>3500</v>
